--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Lpl-Lrp1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Lpl-Lrp1.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>71.329076</v>
+        <v>110.3882446666667</v>
       </c>
       <c r="H2">
-        <v>213.987228</v>
+        <v>331.164734</v>
       </c>
       <c r="I2">
-        <v>0.3307464087015077</v>
+        <v>0.4177264991141899</v>
       </c>
       <c r="J2">
-        <v>0.3307464087015077</v>
+        <v>0.4177264991141899</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>17.16653000000001</v>
+        <v>2.027115333333333</v>
       </c>
       <c r="N2">
-        <v>51.49959000000001</v>
+        <v>6.081346</v>
       </c>
       <c r="O2">
-        <v>0.05603453971282792</v>
+        <v>0.006596284565418616</v>
       </c>
       <c r="P2">
-        <v>0.05603453971282792</v>
+        <v>0.006596284565418615</v>
       </c>
       <c r="Q2">
-        <v>1224.47272302628</v>
+        <v>223.7697033835515</v>
       </c>
       <c r="R2">
-        <v>11020.25450723652</v>
+        <v>2013.927330451964</v>
       </c>
       <c r="S2">
-        <v>0.01853322277325985</v>
+        <v>0.002755442858673283</v>
       </c>
       <c r="T2">
-        <v>0.01853322277325985</v>
+        <v>0.002755442858673283</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>71.329076</v>
+        <v>110.3882446666667</v>
       </c>
       <c r="H3">
-        <v>213.987228</v>
+        <v>331.164734</v>
       </c>
       <c r="I3">
-        <v>0.3307464087015077</v>
+        <v>0.4177264991141899</v>
       </c>
       <c r="J3">
-        <v>0.3307464087015077</v>
+        <v>0.4177264991141899</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>769.332916</v>
       </c>
       <c r="O3">
-        <v>0.8370788162388805</v>
+        <v>0.8344762556643375</v>
       </c>
       <c r="P3">
-        <v>0.8370788162388805</v>
+        <v>0.8344762556643374</v>
       </c>
       <c r="Q3">
-        <v>18291.93534488854</v>
+        <v>28308.43672050937</v>
       </c>
       <c r="R3">
-        <v>164627.4181039968</v>
+        <v>254775.9304845843</v>
       </c>
       <c r="S3">
-        <v>0.276860812271119</v>
+        <v>0.3485828448725813</v>
       </c>
       <c r="T3">
-        <v>0.276860812271119</v>
+        <v>0.3485828448725813</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>71.329076</v>
+        <v>110.3882446666667</v>
       </c>
       <c r="H4">
-        <v>213.987228</v>
+        <v>331.164734</v>
       </c>
       <c r="I4">
-        <v>0.3307464087015077</v>
+        <v>0.4177264991141899</v>
       </c>
       <c r="J4">
-        <v>0.3307464087015077</v>
+        <v>0.4177264991141899</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>32.74538866666666</v>
+        <v>48.84026566666667</v>
       </c>
       <c r="N4">
-        <v>98.236166</v>
+        <v>146.520797</v>
       </c>
       <c r="O4">
-        <v>0.1068866440482915</v>
+        <v>0.158927459770244</v>
       </c>
       <c r="P4">
-        <v>0.1068866440482915</v>
+        <v>0.158927459770244</v>
       </c>
       <c r="Q4">
-        <v>2335.698316854205</v>
+        <v>5391.391195997</v>
       </c>
       <c r="R4">
-        <v>21021.28485168785</v>
+        <v>48522.520763973</v>
       </c>
       <c r="S4">
-        <v>0.03535237365712881</v>
+        <v>0.06638821138293528</v>
       </c>
       <c r="T4">
-        <v>0.03535237365712881</v>
+        <v>0.06638821138293527</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>388.684601</v>
       </c>
       <c r="I5">
-        <v>0.6007649947142102</v>
+        <v>0.4902812436402899</v>
       </c>
       <c r="J5">
-        <v>0.6007649947142101</v>
+        <v>0.4902812436402899</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>17.16653000000001</v>
+        <v>2.027115333333333</v>
       </c>
       <c r="N5">
-        <v>51.49959000000001</v>
+        <v>6.081346</v>
       </c>
       <c r="O5">
-        <v>0.05603453971282792</v>
+        <v>0.006596284565418616</v>
       </c>
       <c r="P5">
-        <v>0.05603453971282792</v>
+        <v>0.006596284565418615</v>
       </c>
       <c r="Q5">
-        <v>2224.121954534844</v>
+        <v>262.6361715058829</v>
       </c>
       <c r="R5">
-        <v>20017.0975908136</v>
+        <v>2363.725543552946</v>
       </c>
       <c r="S5">
-        <v>0.03366358995439026</v>
+        <v>0.003234034600138688</v>
       </c>
       <c r="T5">
-        <v>0.03366358995439026</v>
+        <v>0.003234034600138687</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>388.684601</v>
       </c>
       <c r="I6">
-        <v>0.6007649947142102</v>
+        <v>0.4902812436402899</v>
       </c>
       <c r="J6">
-        <v>0.6007649947142101</v>
+        <v>0.4902812436402899</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>769.332916</v>
       </c>
       <c r="O6">
-        <v>0.8370788162388805</v>
+        <v>0.8344762556643375</v>
       </c>
       <c r="P6">
-        <v>0.8370788162388805</v>
+        <v>0.8344762556643374</v>
       </c>
       <c r="Q6">
         <v>33225.31749906962</v>
@@ -818,10 +818,10 @@
         <v>299027.8574916265</v>
       </c>
       <c r="S6">
-        <v>0.5028876506131283</v>
+        <v>0.4091280564154039</v>
       </c>
       <c r="T6">
-        <v>0.5028876506131282</v>
+        <v>0.4091280564154038</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>388.684601</v>
       </c>
       <c r="I7">
-        <v>0.6007649947142102</v>
+        <v>0.4902812436402899</v>
       </c>
       <c r="J7">
-        <v>0.6007649947142101</v>
+        <v>0.4902812436402899</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>32.74538866666666</v>
+        <v>48.84026566666667</v>
       </c>
       <c r="N7">
-        <v>98.236166</v>
+        <v>146.520797</v>
       </c>
       <c r="O7">
-        <v>0.1068866440482915</v>
+        <v>0.158927459770244</v>
       </c>
       <c r="P7">
-        <v>0.1068866440482915</v>
+        <v>0.158927459770244</v>
       </c>
       <c r="Q7">
-        <v>4242.542776164419</v>
+        <v>6327.81972446078</v>
       </c>
       <c r="R7">
-        <v>38182.88498547977</v>
+        <v>56950.37752014701</v>
       </c>
       <c r="S7">
-        <v>0.06421375414669152</v>
+        <v>0.07791915262474738</v>
       </c>
       <c r="T7">
-        <v>0.06421375414669152</v>
+        <v>0.07791915262474734</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>14.770314</v>
+        <v>24.30983866666667</v>
       </c>
       <c r="H8">
-        <v>44.310942</v>
+        <v>72.92951600000001</v>
       </c>
       <c r="I8">
-        <v>0.06848859658428214</v>
+        <v>0.09199225724552029</v>
       </c>
       <c r="J8">
-        <v>0.06848859658428214</v>
+        <v>0.09199225724552029</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>17.16653000000001</v>
+        <v>2.027115333333333</v>
       </c>
       <c r="N8">
-        <v>51.49959000000001</v>
+        <v>6.081346</v>
       </c>
       <c r="O8">
-        <v>0.05603453971282792</v>
+        <v>0.006596284565418616</v>
       </c>
       <c r="P8">
-        <v>0.05603453971282792</v>
+        <v>0.006596284565418615</v>
       </c>
       <c r="Q8">
-        <v>253.5550383904201</v>
+        <v>49.27884671205955</v>
       </c>
       <c r="R8">
-        <v>2281.99534551378</v>
+        <v>443.509620408536</v>
       </c>
       <c r="S8">
-        <v>0.003837726985177807</v>
+        <v>0.0006068071066066443</v>
       </c>
       <c r="T8">
-        <v>0.003837726985177807</v>
+        <v>0.0006068071066066442</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>14.770314</v>
+        <v>24.30983866666667</v>
       </c>
       <c r="H9">
-        <v>44.310942</v>
+        <v>72.92951600000001</v>
       </c>
       <c r="I9">
-        <v>0.06848859658428214</v>
+        <v>0.09199225724552029</v>
       </c>
       <c r="J9">
-        <v>0.06848859658428214</v>
+        <v>0.09199225724552029</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>769.332916</v>
       </c>
       <c r="O9">
-        <v>0.8370788162388805</v>
+        <v>0.8344762556643375</v>
       </c>
       <c r="P9">
-        <v>0.8370788162388805</v>
+        <v>0.8344762556643374</v>
       </c>
       <c r="Q9">
-        <v>3787.762913285208</v>
+        <v>6234.119689638739</v>
       </c>
       <c r="R9">
-        <v>34089.86621956687</v>
+        <v>56107.07720674866</v>
       </c>
       <c r="S9">
-        <v>0.05733035335463312</v>
+        <v>0.07676535437635229</v>
       </c>
       <c r="T9">
-        <v>0.05733035335463312</v>
+        <v>0.07676535437635228</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>14.770314</v>
+        <v>24.30983866666667</v>
       </c>
       <c r="H10">
-        <v>44.310942</v>
+        <v>72.92951600000001</v>
       </c>
       <c r="I10">
-        <v>0.06848859658428214</v>
+        <v>0.09199225724552029</v>
       </c>
       <c r="J10">
-        <v>0.06848859658428214</v>
+        <v>0.09199225724552029</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>32.74538866666666</v>
+        <v>48.84026566666667</v>
       </c>
       <c r="N10">
-        <v>98.236166</v>
+        <v>146.520797</v>
       </c>
       <c r="O10">
-        <v>0.1068866440482915</v>
+        <v>0.158927459770244</v>
       </c>
       <c r="P10">
-        <v>0.1068866440482915</v>
+        <v>0.158927459770244</v>
       </c>
       <c r="Q10">
-        <v>483.6596726587079</v>
+        <v>1187.298978793806</v>
       </c>
       <c r="R10">
-        <v>4352.937053928372</v>
+        <v>10685.69080914425</v>
       </c>
       <c r="S10">
-        <v>0.007320516244471199</v>
+        <v>0.01462009576256137</v>
       </c>
       <c r="T10">
-        <v>0.007320516244471199</v>
+        <v>0.01462009576256136</v>
       </c>
     </row>
   </sheetData>
